--- a/data/quotation_princing_analysis/Replacement of Ventilation Duct at Cell Loading Area - Rhajtek.xlsx
+++ b/data/quotation_princing_analysis/Replacement of Ventilation Duct at Cell Loading Area - Rhajtek.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\data\quotation_princing_analysis\Ongoing\For CSV\for next cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHTadenaFr\Documents\tbmc-data-management\data\quotation_princing_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB6541-9500-4103-8E6F-CD7D684A8060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="464"/>
   </bookViews>
   <sheets>
     <sheet name="Reconciliation" sheetId="15" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reconciliation!$A$1:$J$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Reconciliation!$A$1:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reconciliation!$A$1:$J$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Reconciliation!$A$1:$F$66</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Reconciliation!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="94">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -326,13 +325,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00_)"/>
-    <numFmt numFmtId="167" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00_)"/>
+    <numFmt numFmtId="166" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -779,9 +778,9 @@
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -810,7 +809,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -822,22 +821,22 @@
     <xf numFmtId="10" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -846,7 +845,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -870,13 +869,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -906,7 +905,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,65 +919,76 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - Accent1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Calculation 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Check Cell 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Comma 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Comma 4" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Currency 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Good 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Grey" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Heading 1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Heading 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Heading 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Heading 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Input [yellow]" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Input 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Input 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Neutral 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="6"/>
+    <cellStyle name="20% - Accent2 2" xfId="7"/>
+    <cellStyle name="20% - Accent3 2" xfId="8"/>
+    <cellStyle name="20% - Accent4 2" xfId="9"/>
+    <cellStyle name="20% - Accent5 2" xfId="10"/>
+    <cellStyle name="20% - Accent6 2" xfId="11"/>
+    <cellStyle name="40% - Accent1 2" xfId="12"/>
+    <cellStyle name="40% - Accent2 2" xfId="13"/>
+    <cellStyle name="40% - Accent3 2" xfId="14"/>
+    <cellStyle name="40% - Accent4 2" xfId="15"/>
+    <cellStyle name="40% - Accent5 2" xfId="16"/>
+    <cellStyle name="40% - Accent6 2" xfId="17"/>
+    <cellStyle name="60% - Accent1 2" xfId="18"/>
+    <cellStyle name="60% - Accent2 2" xfId="19"/>
+    <cellStyle name="60% - Accent3 2" xfId="20"/>
+    <cellStyle name="60% - Accent4 2" xfId="21"/>
+    <cellStyle name="60% - Accent5 2" xfId="22"/>
+    <cellStyle name="60% - Accent6 2" xfId="23"/>
+    <cellStyle name="Accent1 2" xfId="24"/>
+    <cellStyle name="Accent2 2" xfId="25"/>
+    <cellStyle name="Accent3 2" xfId="26"/>
+    <cellStyle name="Accent4 2" xfId="27"/>
+    <cellStyle name="Accent5 2" xfId="28"/>
+    <cellStyle name="Accent6 2" xfId="29"/>
+    <cellStyle name="Bad 2" xfId="30"/>
+    <cellStyle name="Calculation 2" xfId="31"/>
+    <cellStyle name="Check Cell 2" xfId="32"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Comma 4" xfId="56"/>
+    <cellStyle name="Currency 2" xfId="33"/>
+    <cellStyle name="Explanatory Text 2" xfId="34"/>
+    <cellStyle name="Good 2" xfId="35"/>
+    <cellStyle name="Grey" xfId="36"/>
+    <cellStyle name="Heading 1 2" xfId="37"/>
+    <cellStyle name="Heading 2 2" xfId="38"/>
+    <cellStyle name="Heading 3 2" xfId="39"/>
+    <cellStyle name="Heading 4 2" xfId="40"/>
+    <cellStyle name="Input [yellow]" xfId="42"/>
+    <cellStyle name="Input 2" xfId="41"/>
+    <cellStyle name="Input 3" xfId="55"/>
+    <cellStyle name="Linked Cell 2" xfId="43"/>
+    <cellStyle name="Neutral 2" xfId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal_CDOF-EN-F-07-001 Technical Purchase Requisition Form_ENGG-00520-WAREHOUSE FLOORING REPAIR" xfId="4" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Note 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Output 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Percent [2]" xfId="48" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Percent 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Style 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Title 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Total 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Warning Text 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal - Style1" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="54"/>
+    <cellStyle name="Normal_CDOF-EN-F-07-001 Technical Purchase Requisition Form_ENGG-00520-WAREHOUSE FLOORING REPAIR" xfId="4"/>
+    <cellStyle name="Note 2" xfId="46"/>
+    <cellStyle name="Output 2" xfId="47"/>
+    <cellStyle name="Percent [2]" xfId="48"/>
+    <cellStyle name="Percent 2" xfId="49"/>
+    <cellStyle name="Style 1" xfId="50"/>
+    <cellStyle name="Title 2" xfId="51"/>
+    <cellStyle name="Total 2" xfId="52"/>
+    <cellStyle name="Warning Text 2" xfId="53"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1000,9 +1010,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1040,9 +1050,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,7 +1087,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1112,7 +1122,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1285,667 +1295,667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:J69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="60.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="163" width="9.109375" style="2"/>
-    <col min="164" max="164" width="5.6640625" style="2" customWidth="1"/>
-    <col min="165" max="165" width="8.33203125" style="2" customWidth="1"/>
-    <col min="166" max="166" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="50.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="76.85546875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="163" width="9.140625" style="2"/>
+    <col min="164" max="164" width="5.7109375" style="2" customWidth="1"/>
+    <col min="165" max="165" width="8.28515625" style="2" customWidth="1"/>
+    <col min="166" max="166" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="50.7109375" style="2" customWidth="1"/>
     <col min="168" max="168" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="5.6640625" style="2" customWidth="1"/>
-    <col min="171" max="171" width="11.44140625" style="2" customWidth="1"/>
-    <col min="172" max="172" width="12.6640625" style="2" customWidth="1"/>
-    <col min="173" max="419" width="9.109375" style="2"/>
-    <col min="420" max="420" width="5.6640625" style="2" customWidth="1"/>
-    <col min="421" max="421" width="8.33203125" style="2" customWidth="1"/>
-    <col min="422" max="422" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="50.6640625" style="2" customWidth="1"/>
+    <col min="169" max="169" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="5.7109375" style="2" customWidth="1"/>
+    <col min="171" max="171" width="11.42578125" style="2" customWidth="1"/>
+    <col min="172" max="172" width="12.7109375" style="2" customWidth="1"/>
+    <col min="173" max="419" width="9.140625" style="2"/>
+    <col min="420" max="420" width="5.7109375" style="2" customWidth="1"/>
+    <col min="421" max="421" width="8.28515625" style="2" customWidth="1"/>
+    <col min="422" max="422" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="50.7109375" style="2" customWidth="1"/>
     <col min="424" max="424" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="5.6640625" style="2" customWidth="1"/>
-    <col min="427" max="427" width="11.44140625" style="2" customWidth="1"/>
-    <col min="428" max="428" width="12.6640625" style="2" customWidth="1"/>
-    <col min="429" max="675" width="9.109375" style="2"/>
-    <col min="676" max="676" width="5.6640625" style="2" customWidth="1"/>
-    <col min="677" max="677" width="8.33203125" style="2" customWidth="1"/>
-    <col min="678" max="678" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="679" max="679" width="50.6640625" style="2" customWidth="1"/>
+    <col min="425" max="425" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="5.7109375" style="2" customWidth="1"/>
+    <col min="427" max="427" width="11.42578125" style="2" customWidth="1"/>
+    <col min="428" max="428" width="12.7109375" style="2" customWidth="1"/>
+    <col min="429" max="675" width="9.140625" style="2"/>
+    <col min="676" max="676" width="5.7109375" style="2" customWidth="1"/>
+    <col min="677" max="677" width="8.28515625" style="2" customWidth="1"/>
+    <col min="678" max="678" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="679" max="679" width="50.7109375" style="2" customWidth="1"/>
     <col min="680" max="680" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="681" max="681" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="682" max="682" width="5.6640625" style="2" customWidth="1"/>
-    <col min="683" max="683" width="11.44140625" style="2" customWidth="1"/>
-    <col min="684" max="684" width="12.6640625" style="2" customWidth="1"/>
-    <col min="685" max="931" width="9.109375" style="2"/>
-    <col min="932" max="932" width="5.6640625" style="2" customWidth="1"/>
-    <col min="933" max="933" width="8.33203125" style="2" customWidth="1"/>
-    <col min="934" max="934" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="935" max="935" width="50.6640625" style="2" customWidth="1"/>
+    <col min="681" max="681" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="682" max="682" width="5.7109375" style="2" customWidth="1"/>
+    <col min="683" max="683" width="11.42578125" style="2" customWidth="1"/>
+    <col min="684" max="684" width="12.7109375" style="2" customWidth="1"/>
+    <col min="685" max="931" width="9.140625" style="2"/>
+    <col min="932" max="932" width="5.7109375" style="2" customWidth="1"/>
+    <col min="933" max="933" width="8.28515625" style="2" customWidth="1"/>
+    <col min="934" max="934" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="935" max="935" width="50.7109375" style="2" customWidth="1"/>
     <col min="936" max="936" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="937" max="937" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="938" max="938" width="5.6640625" style="2" customWidth="1"/>
-    <col min="939" max="939" width="11.44140625" style="2" customWidth="1"/>
-    <col min="940" max="940" width="12.6640625" style="2" customWidth="1"/>
-    <col min="941" max="1187" width="9.109375" style="2"/>
-    <col min="1188" max="1188" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1189" max="1189" width="8.33203125" style="2" customWidth="1"/>
-    <col min="1190" max="1190" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1191" max="1191" width="50.6640625" style="2" customWidth="1"/>
+    <col min="937" max="937" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="938" max="938" width="5.7109375" style="2" customWidth="1"/>
+    <col min="939" max="939" width="11.42578125" style="2" customWidth="1"/>
+    <col min="940" max="940" width="12.7109375" style="2" customWidth="1"/>
+    <col min="941" max="1187" width="9.140625" style="2"/>
+    <col min="1188" max="1188" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1189" max="1189" width="8.28515625" style="2" customWidth="1"/>
+    <col min="1190" max="1190" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1191" max="1191" width="50.7109375" style="2" customWidth="1"/>
     <col min="1192" max="1192" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="1193" max="1193" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="1194" max="1194" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1195" max="1195" width="11.44140625" style="2" customWidth="1"/>
-    <col min="1196" max="1196" width="12.6640625" style="2" customWidth="1"/>
-    <col min="1197" max="1443" width="9.109375" style="2"/>
-    <col min="1444" max="1444" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1445" max="1445" width="8.33203125" style="2" customWidth="1"/>
-    <col min="1446" max="1446" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1447" max="1447" width="50.6640625" style="2" customWidth="1"/>
+    <col min="1193" max="1193" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1194" max="1194" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1195" max="1195" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1196" max="1196" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1197" max="1443" width="9.140625" style="2"/>
+    <col min="1444" max="1444" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1445" max="1445" width="8.28515625" style="2" customWidth="1"/>
+    <col min="1446" max="1446" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1447" max="1447" width="50.7109375" style="2" customWidth="1"/>
     <col min="1448" max="1448" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="1449" max="1449" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="1450" max="1450" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1451" max="1451" width="11.44140625" style="2" customWidth="1"/>
-    <col min="1452" max="1452" width="12.6640625" style="2" customWidth="1"/>
-    <col min="1453" max="1699" width="9.109375" style="2"/>
-    <col min="1700" max="1700" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1701" max="1701" width="8.33203125" style="2" customWidth="1"/>
-    <col min="1702" max="1702" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1703" max="1703" width="50.6640625" style="2" customWidth="1"/>
+    <col min="1449" max="1449" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1450" max="1450" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1451" max="1451" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1452" max="1452" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1453" max="1699" width="9.140625" style="2"/>
+    <col min="1700" max="1700" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1701" max="1701" width="8.28515625" style="2" customWidth="1"/>
+    <col min="1702" max="1702" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1703" max="1703" width="50.7109375" style="2" customWidth="1"/>
     <col min="1704" max="1704" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="1705" max="1705" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="1706" max="1706" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1707" max="1707" width="11.44140625" style="2" customWidth="1"/>
-    <col min="1708" max="1708" width="12.6640625" style="2" customWidth="1"/>
-    <col min="1709" max="1955" width="9.109375" style="2"/>
-    <col min="1956" max="1956" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1957" max="1957" width="8.33203125" style="2" customWidth="1"/>
-    <col min="1958" max="1958" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1959" max="1959" width="50.6640625" style="2" customWidth="1"/>
+    <col min="1705" max="1705" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1706" max="1706" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1707" max="1707" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1708" max="1708" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1709" max="1955" width="9.140625" style="2"/>
+    <col min="1956" max="1956" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1957" max="1957" width="8.28515625" style="2" customWidth="1"/>
+    <col min="1958" max="1958" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1959" max="1959" width="50.7109375" style="2" customWidth="1"/>
     <col min="1960" max="1960" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="1961" max="1961" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="1962" max="1962" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1963" max="1963" width="11.44140625" style="2" customWidth="1"/>
-    <col min="1964" max="1964" width="12.6640625" style="2" customWidth="1"/>
-    <col min="1965" max="2211" width="9.109375" style="2"/>
-    <col min="2212" max="2212" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2213" max="2213" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2214" max="2214" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2215" max="2215" width="50.6640625" style="2" customWidth="1"/>
+    <col min="1961" max="1961" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1962" max="1962" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1963" max="1963" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1964" max="1964" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1965" max="2211" width="9.140625" style="2"/>
+    <col min="2212" max="2212" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2213" max="2213" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2214" max="2214" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2215" max="2215" width="50.7109375" style="2" customWidth="1"/>
     <col min="2216" max="2216" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2217" max="2217" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2218" max="2218" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2219" max="2219" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2220" max="2220" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2221" max="2467" width="9.109375" style="2"/>
-    <col min="2468" max="2468" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2469" max="2469" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2470" max="2470" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2471" max="2471" width="50.6640625" style="2" customWidth="1"/>
+    <col min="2217" max="2217" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2218" max="2218" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2219" max="2219" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2220" max="2220" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2221" max="2467" width="9.140625" style="2"/>
+    <col min="2468" max="2468" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2469" max="2469" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2470" max="2470" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2471" max="2471" width="50.7109375" style="2" customWidth="1"/>
     <col min="2472" max="2472" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2473" max="2473" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2474" max="2474" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2475" max="2475" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2476" max="2476" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2477" max="2723" width="9.109375" style="2"/>
-    <col min="2724" max="2724" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2725" max="2725" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2726" max="2726" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2727" max="2727" width="50.6640625" style="2" customWidth="1"/>
+    <col min="2473" max="2473" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2474" max="2474" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2475" max="2475" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2476" max="2476" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2477" max="2723" width="9.140625" style="2"/>
+    <col min="2724" max="2724" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2725" max="2725" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2726" max="2726" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2727" max="2727" width="50.7109375" style="2" customWidth="1"/>
     <col min="2728" max="2728" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2729" max="2729" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2730" max="2730" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2731" max="2731" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2732" max="2732" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2733" max="2979" width="9.109375" style="2"/>
-    <col min="2980" max="2980" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2981" max="2981" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2982" max="2982" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2983" max="2983" width="50.6640625" style="2" customWidth="1"/>
+    <col min="2729" max="2729" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2730" max="2730" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2731" max="2731" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2732" max="2732" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2733" max="2979" width="9.140625" style="2"/>
+    <col min="2980" max="2980" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2981" max="2981" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2982" max="2982" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2983" max="2983" width="50.7109375" style="2" customWidth="1"/>
     <col min="2984" max="2984" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2985" max="2985" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2986" max="2986" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2987" max="2987" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2988" max="2988" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2989" max="3235" width="9.109375" style="2"/>
-    <col min="3236" max="3236" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3237" max="3237" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3238" max="3238" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3239" max="3239" width="50.6640625" style="2" customWidth="1"/>
+    <col min="2985" max="2985" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2986" max="2986" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2987" max="2987" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2988" max="2988" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2989" max="3235" width="9.140625" style="2"/>
+    <col min="3236" max="3236" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3237" max="3237" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3238" max="3238" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3239" max="3239" width="50.7109375" style="2" customWidth="1"/>
     <col min="3240" max="3240" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3241" max="3241" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3242" max="3242" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3243" max="3243" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3244" max="3244" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3245" max="3491" width="9.109375" style="2"/>
-    <col min="3492" max="3492" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3493" max="3493" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3494" max="3494" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3495" max="3495" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3241" max="3241" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3242" max="3242" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3243" max="3243" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3244" max="3244" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3245" max="3491" width="9.140625" style="2"/>
+    <col min="3492" max="3492" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3493" max="3493" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3494" max="3494" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3495" max="3495" width="50.7109375" style="2" customWidth="1"/>
     <col min="3496" max="3496" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3497" max="3497" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3498" max="3498" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3499" max="3499" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3500" max="3500" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3501" max="3747" width="9.109375" style="2"/>
-    <col min="3748" max="3748" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3749" max="3749" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3750" max="3750" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3751" max="3751" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3497" max="3497" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3498" max="3498" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3499" max="3499" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3500" max="3500" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3501" max="3747" width="9.140625" style="2"/>
+    <col min="3748" max="3748" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3749" max="3749" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3750" max="3750" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3751" max="3751" width="50.7109375" style="2" customWidth="1"/>
     <col min="3752" max="3752" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3753" max="3753" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3754" max="3754" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3755" max="3755" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3756" max="3756" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3757" max="4003" width="9.109375" style="2"/>
-    <col min="4004" max="4004" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4005" max="4005" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4006" max="4006" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4007" max="4007" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3753" max="3753" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3754" max="3754" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3755" max="3755" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3756" max="3756" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3757" max="4003" width="9.140625" style="2"/>
+    <col min="4004" max="4004" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4005" max="4005" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4006" max="4006" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4007" max="4007" width="50.7109375" style="2" customWidth="1"/>
     <col min="4008" max="4008" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4009" max="4009" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4010" max="4010" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4011" max="4011" width="11.44140625" style="2" customWidth="1"/>
-    <col min="4012" max="4012" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4013" max="4259" width="9.109375" style="2"/>
-    <col min="4260" max="4260" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4261" max="4261" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4262" max="4262" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4263" max="4263" width="50.6640625" style="2" customWidth="1"/>
+    <col min="4009" max="4009" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4010" max="4010" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4011" max="4011" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4012" max="4012" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4013" max="4259" width="9.140625" style="2"/>
+    <col min="4260" max="4260" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4261" max="4261" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4262" max="4262" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4263" max="4263" width="50.7109375" style="2" customWidth="1"/>
     <col min="4264" max="4264" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4265" max="4265" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4266" max="4266" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4267" max="4267" width="11.44140625" style="2" customWidth="1"/>
-    <col min="4268" max="4268" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4269" max="4515" width="9.109375" style="2"/>
-    <col min="4516" max="4516" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4517" max="4517" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4518" max="4518" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4519" max="4519" width="50.6640625" style="2" customWidth="1"/>
+    <col min="4265" max="4265" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4266" max="4266" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4267" max="4267" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4268" max="4268" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4269" max="4515" width="9.140625" style="2"/>
+    <col min="4516" max="4516" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4517" max="4517" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4518" max="4518" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4519" max="4519" width="50.7109375" style="2" customWidth="1"/>
     <col min="4520" max="4520" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4521" max="4521" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4522" max="4522" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4523" max="4523" width="11.44140625" style="2" customWidth="1"/>
-    <col min="4524" max="4524" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4525" max="4771" width="9.109375" style="2"/>
-    <col min="4772" max="4772" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4773" max="4773" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4774" max="4774" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4775" max="4775" width="50.6640625" style="2" customWidth="1"/>
+    <col min="4521" max="4521" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4522" max="4522" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4523" max="4523" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4524" max="4524" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4525" max="4771" width="9.140625" style="2"/>
+    <col min="4772" max="4772" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4773" max="4773" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4774" max="4774" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4775" max="4775" width="50.7109375" style="2" customWidth="1"/>
     <col min="4776" max="4776" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4777" max="4777" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4778" max="4778" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4779" max="4779" width="11.44140625" style="2" customWidth="1"/>
-    <col min="4780" max="4780" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4781" max="5027" width="9.109375" style="2"/>
-    <col min="5028" max="5028" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5029" max="5029" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5030" max="5030" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5031" max="5031" width="50.6640625" style="2" customWidth="1"/>
+    <col min="4777" max="4777" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4778" max="4778" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4779" max="4779" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4780" max="4780" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4781" max="5027" width="9.140625" style="2"/>
+    <col min="5028" max="5028" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5029" max="5029" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5030" max="5030" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5031" max="5031" width="50.7109375" style="2" customWidth="1"/>
     <col min="5032" max="5032" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5033" max="5033" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5034" max="5034" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5035" max="5035" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5036" max="5036" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5037" max="5283" width="9.109375" style="2"/>
-    <col min="5284" max="5284" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5285" max="5285" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5286" max="5286" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5287" max="5287" width="50.6640625" style="2" customWidth="1"/>
+    <col min="5033" max="5033" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5034" max="5034" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5035" max="5035" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5036" max="5036" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5037" max="5283" width="9.140625" style="2"/>
+    <col min="5284" max="5284" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5285" max="5285" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5286" max="5286" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5287" max="5287" width="50.7109375" style="2" customWidth="1"/>
     <col min="5288" max="5288" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5289" max="5289" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5290" max="5290" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5291" max="5291" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5292" max="5292" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5293" max="5539" width="9.109375" style="2"/>
-    <col min="5540" max="5540" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5541" max="5541" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5542" max="5542" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5543" max="5543" width="50.6640625" style="2" customWidth="1"/>
+    <col min="5289" max="5289" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5290" max="5290" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5291" max="5291" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5292" max="5292" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5293" max="5539" width="9.140625" style="2"/>
+    <col min="5540" max="5540" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5541" max="5541" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5542" max="5542" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5543" max="5543" width="50.7109375" style="2" customWidth="1"/>
     <col min="5544" max="5544" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5545" max="5545" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5546" max="5546" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5547" max="5547" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5548" max="5548" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5549" max="5795" width="9.109375" style="2"/>
-    <col min="5796" max="5796" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5797" max="5797" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5798" max="5798" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5799" max="5799" width="50.6640625" style="2" customWidth="1"/>
+    <col min="5545" max="5545" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5546" max="5546" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5547" max="5547" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5548" max="5548" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5549" max="5795" width="9.140625" style="2"/>
+    <col min="5796" max="5796" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5797" max="5797" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5798" max="5798" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5799" max="5799" width="50.7109375" style="2" customWidth="1"/>
     <col min="5800" max="5800" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5801" max="5801" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5802" max="5802" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5803" max="5803" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5804" max="5804" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5805" max="6051" width="9.109375" style="2"/>
-    <col min="6052" max="6052" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6053" max="6053" width="8.33203125" style="2" customWidth="1"/>
-    <col min="6054" max="6054" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6055" max="6055" width="50.6640625" style="2" customWidth="1"/>
+    <col min="5801" max="5801" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5802" max="5802" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5803" max="5803" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5804" max="5804" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5805" max="6051" width="9.140625" style="2"/>
+    <col min="6052" max="6052" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6053" max="6053" width="8.28515625" style="2" customWidth="1"/>
+    <col min="6054" max="6054" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6055" max="6055" width="50.7109375" style="2" customWidth="1"/>
     <col min="6056" max="6056" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6057" max="6057" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6058" max="6058" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6059" max="6059" width="11.44140625" style="2" customWidth="1"/>
-    <col min="6060" max="6060" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6061" max="6307" width="9.109375" style="2"/>
-    <col min="6308" max="6308" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6309" max="6309" width="8.33203125" style="2" customWidth="1"/>
-    <col min="6310" max="6310" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6311" max="6311" width="50.6640625" style="2" customWidth="1"/>
+    <col min="6057" max="6057" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6058" max="6058" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6059" max="6059" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6060" max="6060" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6061" max="6307" width="9.140625" style="2"/>
+    <col min="6308" max="6308" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6309" max="6309" width="8.28515625" style="2" customWidth="1"/>
+    <col min="6310" max="6310" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6311" max="6311" width="50.7109375" style="2" customWidth="1"/>
     <col min="6312" max="6312" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6313" max="6313" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6314" max="6314" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6315" max="6315" width="11.44140625" style="2" customWidth="1"/>
-    <col min="6316" max="6316" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6317" max="6563" width="9.109375" style="2"/>
-    <col min="6564" max="6564" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6565" max="6565" width="8.33203125" style="2" customWidth="1"/>
-    <col min="6566" max="6566" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6567" max="6567" width="50.6640625" style="2" customWidth="1"/>
+    <col min="6313" max="6313" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6314" max="6314" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6315" max="6315" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6316" max="6316" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6317" max="6563" width="9.140625" style="2"/>
+    <col min="6564" max="6564" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6565" max="6565" width="8.28515625" style="2" customWidth="1"/>
+    <col min="6566" max="6566" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6567" max="6567" width="50.7109375" style="2" customWidth="1"/>
     <col min="6568" max="6568" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6569" max="6569" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6570" max="6570" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6571" max="6571" width="11.44140625" style="2" customWidth="1"/>
-    <col min="6572" max="6572" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6573" max="6819" width="9.109375" style="2"/>
-    <col min="6820" max="6820" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6821" max="6821" width="8.33203125" style="2" customWidth="1"/>
-    <col min="6822" max="6822" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6823" max="6823" width="50.6640625" style="2" customWidth="1"/>
+    <col min="6569" max="6569" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6570" max="6570" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6571" max="6571" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6572" max="6572" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6573" max="6819" width="9.140625" style="2"/>
+    <col min="6820" max="6820" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6821" max="6821" width="8.28515625" style="2" customWidth="1"/>
+    <col min="6822" max="6822" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6823" max="6823" width="50.7109375" style="2" customWidth="1"/>
     <col min="6824" max="6824" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6825" max="6825" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6826" max="6826" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6827" max="6827" width="11.44140625" style="2" customWidth="1"/>
-    <col min="6828" max="6828" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6829" max="7075" width="9.109375" style="2"/>
-    <col min="7076" max="7076" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7077" max="7077" width="8.33203125" style="2" customWidth="1"/>
-    <col min="7078" max="7078" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7079" max="7079" width="50.6640625" style="2" customWidth="1"/>
+    <col min="6825" max="6825" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6826" max="6826" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6827" max="6827" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6828" max="6828" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6829" max="7075" width="9.140625" style="2"/>
+    <col min="7076" max="7076" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7077" max="7077" width="8.28515625" style="2" customWidth="1"/>
+    <col min="7078" max="7078" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7079" max="7079" width="50.7109375" style="2" customWidth="1"/>
     <col min="7080" max="7080" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7081" max="7081" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7082" max="7082" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7083" max="7083" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7084" max="7084" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7085" max="7331" width="9.109375" style="2"/>
-    <col min="7332" max="7332" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7333" max="7333" width="8.33203125" style="2" customWidth="1"/>
-    <col min="7334" max="7334" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7335" max="7335" width="50.6640625" style="2" customWidth="1"/>
+    <col min="7081" max="7081" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7082" max="7082" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7083" max="7083" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7084" max="7084" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7085" max="7331" width="9.140625" style="2"/>
+    <col min="7332" max="7332" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7333" max="7333" width="8.28515625" style="2" customWidth="1"/>
+    <col min="7334" max="7334" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7335" max="7335" width="50.7109375" style="2" customWidth="1"/>
     <col min="7336" max="7336" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7337" max="7337" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7338" max="7338" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7339" max="7339" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7340" max="7340" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7341" max="7587" width="9.109375" style="2"/>
-    <col min="7588" max="7588" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7589" max="7589" width="8.33203125" style="2" customWidth="1"/>
-    <col min="7590" max="7590" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7591" max="7591" width="50.6640625" style="2" customWidth="1"/>
+    <col min="7337" max="7337" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7338" max="7338" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7339" max="7339" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7340" max="7340" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7341" max="7587" width="9.140625" style="2"/>
+    <col min="7588" max="7588" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7589" max="7589" width="8.28515625" style="2" customWidth="1"/>
+    <col min="7590" max="7590" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7591" max="7591" width="50.7109375" style="2" customWidth="1"/>
     <col min="7592" max="7592" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7593" max="7593" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7594" max="7594" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7595" max="7595" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7596" max="7596" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7597" max="7843" width="9.109375" style="2"/>
-    <col min="7844" max="7844" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7845" max="7845" width="8.33203125" style="2" customWidth="1"/>
-    <col min="7846" max="7846" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7847" max="7847" width="50.6640625" style="2" customWidth="1"/>
+    <col min="7593" max="7593" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7594" max="7594" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7595" max="7595" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7596" max="7596" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7597" max="7843" width="9.140625" style="2"/>
+    <col min="7844" max="7844" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7845" max="7845" width="8.28515625" style="2" customWidth="1"/>
+    <col min="7846" max="7846" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7847" max="7847" width="50.7109375" style="2" customWidth="1"/>
     <col min="7848" max="7848" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7849" max="7849" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7850" max="7850" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7851" max="7851" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7852" max="7852" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7853" max="8099" width="9.109375" style="2"/>
-    <col min="8100" max="8100" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8101" max="8101" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8102" max="8102" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8103" max="8103" width="50.6640625" style="2" customWidth="1"/>
+    <col min="7849" max="7849" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7850" max="7850" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7851" max="7851" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7852" max="7852" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7853" max="8099" width="9.140625" style="2"/>
+    <col min="8100" max="8100" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8101" max="8101" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8102" max="8102" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8103" max="8103" width="50.7109375" style="2" customWidth="1"/>
     <col min="8104" max="8104" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8105" max="8105" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8106" max="8106" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8107" max="8107" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8108" max="8108" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8109" max="8355" width="9.109375" style="2"/>
-    <col min="8356" max="8356" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8357" max="8357" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8358" max="8358" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8359" max="8359" width="50.6640625" style="2" customWidth="1"/>
+    <col min="8105" max="8105" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8106" max="8106" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8107" max="8107" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8108" max="8108" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8109" max="8355" width="9.140625" style="2"/>
+    <col min="8356" max="8356" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8357" max="8357" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8358" max="8358" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8359" max="8359" width="50.7109375" style="2" customWidth="1"/>
     <col min="8360" max="8360" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8361" max="8361" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8362" max="8362" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8363" max="8363" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8364" max="8364" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8365" max="8611" width="9.109375" style="2"/>
-    <col min="8612" max="8612" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8613" max="8613" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8614" max="8614" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8615" max="8615" width="50.6640625" style="2" customWidth="1"/>
+    <col min="8361" max="8361" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8362" max="8362" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8363" max="8363" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8364" max="8364" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8365" max="8611" width="9.140625" style="2"/>
+    <col min="8612" max="8612" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8613" max="8613" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8614" max="8614" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8615" max="8615" width="50.7109375" style="2" customWidth="1"/>
     <col min="8616" max="8616" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8617" max="8617" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8618" max="8618" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8619" max="8619" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8620" max="8620" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8621" max="8867" width="9.109375" style="2"/>
-    <col min="8868" max="8868" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8869" max="8869" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8870" max="8870" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8871" max="8871" width="50.6640625" style="2" customWidth="1"/>
+    <col min="8617" max="8617" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8618" max="8618" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8619" max="8619" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8620" max="8620" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8621" max="8867" width="9.140625" style="2"/>
+    <col min="8868" max="8868" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8869" max="8869" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8870" max="8870" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8871" max="8871" width="50.7109375" style="2" customWidth="1"/>
     <col min="8872" max="8872" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8873" max="8873" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8874" max="8874" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8875" max="8875" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8876" max="8876" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8877" max="9123" width="9.109375" style="2"/>
-    <col min="9124" max="9124" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9125" max="9125" width="8.33203125" style="2" customWidth="1"/>
-    <col min="9126" max="9126" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9127" max="9127" width="50.6640625" style="2" customWidth="1"/>
+    <col min="8873" max="8873" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8874" max="8874" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8875" max="8875" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8876" max="8876" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8877" max="9123" width="9.140625" style="2"/>
+    <col min="9124" max="9124" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9125" max="9125" width="8.28515625" style="2" customWidth="1"/>
+    <col min="9126" max="9126" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9127" max="9127" width="50.7109375" style="2" customWidth="1"/>
     <col min="9128" max="9128" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9129" max="9129" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9130" max="9130" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9131" max="9131" width="11.44140625" style="2" customWidth="1"/>
-    <col min="9132" max="9132" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9133" max="9379" width="9.109375" style="2"/>
-    <col min="9380" max="9380" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9381" max="9381" width="8.33203125" style="2" customWidth="1"/>
-    <col min="9382" max="9382" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9383" max="9383" width="50.6640625" style="2" customWidth="1"/>
+    <col min="9129" max="9129" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9130" max="9130" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9131" max="9131" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9132" max="9132" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9133" max="9379" width="9.140625" style="2"/>
+    <col min="9380" max="9380" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9381" max="9381" width="8.28515625" style="2" customWidth="1"/>
+    <col min="9382" max="9382" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9383" max="9383" width="50.7109375" style="2" customWidth="1"/>
     <col min="9384" max="9384" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9385" max="9385" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9386" max="9386" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9387" max="9387" width="11.44140625" style="2" customWidth="1"/>
-    <col min="9388" max="9388" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9389" max="9635" width="9.109375" style="2"/>
-    <col min="9636" max="9636" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9637" max="9637" width="8.33203125" style="2" customWidth="1"/>
-    <col min="9638" max="9638" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9639" max="9639" width="50.6640625" style="2" customWidth="1"/>
+    <col min="9385" max="9385" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9386" max="9386" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9387" max="9387" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9388" max="9388" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9389" max="9635" width="9.140625" style="2"/>
+    <col min="9636" max="9636" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9637" max="9637" width="8.28515625" style="2" customWidth="1"/>
+    <col min="9638" max="9638" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9639" max="9639" width="50.7109375" style="2" customWidth="1"/>
     <col min="9640" max="9640" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9641" max="9641" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9642" max="9642" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9643" max="9643" width="11.44140625" style="2" customWidth="1"/>
-    <col min="9644" max="9644" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9645" max="9891" width="9.109375" style="2"/>
-    <col min="9892" max="9892" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9893" max="9893" width="8.33203125" style="2" customWidth="1"/>
-    <col min="9894" max="9894" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9895" max="9895" width="50.6640625" style="2" customWidth="1"/>
+    <col min="9641" max="9641" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9642" max="9642" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9643" max="9643" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9644" max="9644" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9645" max="9891" width="9.140625" style="2"/>
+    <col min="9892" max="9892" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9893" max="9893" width="8.28515625" style="2" customWidth="1"/>
+    <col min="9894" max="9894" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9895" max="9895" width="50.7109375" style="2" customWidth="1"/>
     <col min="9896" max="9896" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9897" max="9897" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9898" max="9898" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9899" max="9899" width="11.44140625" style="2" customWidth="1"/>
-    <col min="9900" max="9900" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9901" max="10147" width="9.109375" style="2"/>
-    <col min="10148" max="10148" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10149" max="10149" width="8.33203125" style="2" customWidth="1"/>
-    <col min="10150" max="10150" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10151" max="10151" width="50.6640625" style="2" customWidth="1"/>
+    <col min="9897" max="9897" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9898" max="9898" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9899" max="9899" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9900" max="9900" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9901" max="10147" width="9.140625" style="2"/>
+    <col min="10148" max="10148" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10149" max="10149" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10150" max="10150" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10151" max="10151" width="50.7109375" style="2" customWidth="1"/>
     <col min="10152" max="10152" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10153" max="10153" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10154" max="10154" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10155" max="10155" width="11.44140625" style="2" customWidth="1"/>
-    <col min="10156" max="10156" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10157" max="10403" width="9.109375" style="2"/>
-    <col min="10404" max="10404" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10405" max="10405" width="8.33203125" style="2" customWidth="1"/>
-    <col min="10406" max="10406" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10407" max="10407" width="50.6640625" style="2" customWidth="1"/>
+    <col min="10153" max="10153" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10154" max="10154" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10155" max="10155" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10156" max="10156" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10157" max="10403" width="9.140625" style="2"/>
+    <col min="10404" max="10404" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10405" max="10405" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10406" max="10406" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10407" max="10407" width="50.7109375" style="2" customWidth="1"/>
     <col min="10408" max="10408" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10409" max="10409" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10410" max="10410" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10411" max="10411" width="11.44140625" style="2" customWidth="1"/>
-    <col min="10412" max="10412" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10413" max="10659" width="9.109375" style="2"/>
-    <col min="10660" max="10660" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10661" max="10661" width="8.33203125" style="2" customWidth="1"/>
-    <col min="10662" max="10662" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10663" max="10663" width="50.6640625" style="2" customWidth="1"/>
+    <col min="10409" max="10409" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10410" max="10410" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10411" max="10411" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10412" max="10412" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10413" max="10659" width="9.140625" style="2"/>
+    <col min="10660" max="10660" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10661" max="10661" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10662" max="10662" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10663" max="10663" width="50.7109375" style="2" customWidth="1"/>
     <col min="10664" max="10664" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10665" max="10665" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10666" max="10666" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10667" max="10667" width="11.44140625" style="2" customWidth="1"/>
-    <col min="10668" max="10668" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10669" max="10915" width="9.109375" style="2"/>
-    <col min="10916" max="10916" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10917" max="10917" width="8.33203125" style="2" customWidth="1"/>
-    <col min="10918" max="10918" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10919" max="10919" width="50.6640625" style="2" customWidth="1"/>
+    <col min="10665" max="10665" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10666" max="10666" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10667" max="10667" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10668" max="10668" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10669" max="10915" width="9.140625" style="2"/>
+    <col min="10916" max="10916" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10917" max="10917" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10918" max="10918" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10919" max="10919" width="50.7109375" style="2" customWidth="1"/>
     <col min="10920" max="10920" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10921" max="10921" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10922" max="10922" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10923" max="10923" width="11.44140625" style="2" customWidth="1"/>
-    <col min="10924" max="10924" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10925" max="11171" width="9.109375" style="2"/>
-    <col min="11172" max="11172" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11173" max="11173" width="8.33203125" style="2" customWidth="1"/>
-    <col min="11174" max="11174" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11175" max="11175" width="50.6640625" style="2" customWidth="1"/>
+    <col min="10921" max="10921" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10922" max="10922" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10923" max="10923" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10924" max="10924" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10925" max="11171" width="9.140625" style="2"/>
+    <col min="11172" max="11172" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11173" max="11173" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11174" max="11174" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11175" max="11175" width="50.7109375" style="2" customWidth="1"/>
     <col min="11176" max="11176" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11177" max="11177" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11178" max="11178" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11179" max="11179" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11180" max="11180" width="12.6640625" style="2" customWidth="1"/>
-    <col min="11181" max="11427" width="9.109375" style="2"/>
-    <col min="11428" max="11428" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11429" max="11429" width="8.33203125" style="2" customWidth="1"/>
-    <col min="11430" max="11430" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11431" max="11431" width="50.6640625" style="2" customWidth="1"/>
+    <col min="11177" max="11177" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11178" max="11178" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11179" max="11179" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11180" max="11180" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11181" max="11427" width="9.140625" style="2"/>
+    <col min="11428" max="11428" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11429" max="11429" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11430" max="11430" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11431" max="11431" width="50.7109375" style="2" customWidth="1"/>
     <col min="11432" max="11432" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11433" max="11433" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11434" max="11434" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11435" max="11435" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11436" max="11436" width="12.6640625" style="2" customWidth="1"/>
-    <col min="11437" max="11683" width="9.109375" style="2"/>
-    <col min="11684" max="11684" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11685" max="11685" width="8.33203125" style="2" customWidth="1"/>
-    <col min="11686" max="11686" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11687" max="11687" width="50.6640625" style="2" customWidth="1"/>
+    <col min="11433" max="11433" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11434" max="11434" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11435" max="11435" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11436" max="11436" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11437" max="11683" width="9.140625" style="2"/>
+    <col min="11684" max="11684" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11685" max="11685" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11686" max="11686" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11687" max="11687" width="50.7109375" style="2" customWidth="1"/>
     <col min="11688" max="11688" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11689" max="11689" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11690" max="11690" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11691" max="11691" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11692" max="11692" width="12.6640625" style="2" customWidth="1"/>
-    <col min="11693" max="11939" width="9.109375" style="2"/>
-    <col min="11940" max="11940" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11941" max="11941" width="8.33203125" style="2" customWidth="1"/>
-    <col min="11942" max="11942" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11943" max="11943" width="50.6640625" style="2" customWidth="1"/>
+    <col min="11689" max="11689" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11690" max="11690" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11691" max="11691" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11692" max="11692" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11693" max="11939" width="9.140625" style="2"/>
+    <col min="11940" max="11940" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11941" max="11941" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11942" max="11942" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11943" max="11943" width="50.7109375" style="2" customWidth="1"/>
     <col min="11944" max="11944" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11945" max="11945" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11946" max="11946" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11947" max="11947" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11948" max="11948" width="12.6640625" style="2" customWidth="1"/>
-    <col min="11949" max="12195" width="9.109375" style="2"/>
-    <col min="12196" max="12196" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12197" max="12197" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12198" max="12198" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12199" max="12199" width="50.6640625" style="2" customWidth="1"/>
+    <col min="11945" max="11945" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11946" max="11946" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11947" max="11947" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11948" max="11948" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11949" max="12195" width="9.140625" style="2"/>
+    <col min="12196" max="12196" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12197" max="12197" width="8.28515625" style="2" customWidth="1"/>
+    <col min="12198" max="12198" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12199" max="12199" width="50.7109375" style="2" customWidth="1"/>
     <col min="12200" max="12200" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12201" max="12201" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12202" max="12202" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12203" max="12203" width="11.44140625" style="2" customWidth="1"/>
-    <col min="12204" max="12204" width="12.6640625" style="2" customWidth="1"/>
-    <col min="12205" max="12451" width="9.109375" style="2"/>
-    <col min="12452" max="12452" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12453" max="12453" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12454" max="12454" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12455" max="12455" width="50.6640625" style="2" customWidth="1"/>
+    <col min="12201" max="12201" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12202" max="12202" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12203" max="12203" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12204" max="12204" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12205" max="12451" width="9.140625" style="2"/>
+    <col min="12452" max="12452" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12453" max="12453" width="8.28515625" style="2" customWidth="1"/>
+    <col min="12454" max="12454" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12455" max="12455" width="50.7109375" style="2" customWidth="1"/>
     <col min="12456" max="12456" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12457" max="12457" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12458" max="12458" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12459" max="12459" width="11.44140625" style="2" customWidth="1"/>
-    <col min="12460" max="12460" width="12.6640625" style="2" customWidth="1"/>
-    <col min="12461" max="12707" width="9.109375" style="2"/>
-    <col min="12708" max="12708" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12709" max="12709" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12710" max="12710" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12711" max="12711" width="50.6640625" style="2" customWidth="1"/>
+    <col min="12457" max="12457" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12458" max="12458" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12459" max="12459" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12460" max="12460" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12461" max="12707" width="9.140625" style="2"/>
+    <col min="12708" max="12708" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12709" max="12709" width="8.28515625" style="2" customWidth="1"/>
+    <col min="12710" max="12710" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12711" max="12711" width="50.7109375" style="2" customWidth="1"/>
     <col min="12712" max="12712" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12713" max="12713" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12714" max="12714" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12715" max="12715" width="11.44140625" style="2" customWidth="1"/>
-    <col min="12716" max="12716" width="12.6640625" style="2" customWidth="1"/>
-    <col min="12717" max="12963" width="9.109375" style="2"/>
-    <col min="12964" max="12964" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12965" max="12965" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12966" max="12966" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12967" max="12967" width="50.6640625" style="2" customWidth="1"/>
+    <col min="12713" max="12713" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12714" max="12714" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12715" max="12715" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12716" max="12716" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12717" max="12963" width="9.140625" style="2"/>
+    <col min="12964" max="12964" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12965" max="12965" width="8.28515625" style="2" customWidth="1"/>
+    <col min="12966" max="12966" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12967" max="12967" width="50.7109375" style="2" customWidth="1"/>
     <col min="12968" max="12968" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12969" max="12969" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12970" max="12970" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12971" max="12971" width="11.44140625" style="2" customWidth="1"/>
-    <col min="12972" max="12972" width="12.6640625" style="2" customWidth="1"/>
-    <col min="12973" max="13219" width="9.109375" style="2"/>
-    <col min="13220" max="13220" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13221" max="13221" width="8.33203125" style="2" customWidth="1"/>
-    <col min="13222" max="13222" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13223" max="13223" width="50.6640625" style="2" customWidth="1"/>
+    <col min="12969" max="12969" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12970" max="12970" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12971" max="12971" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12972" max="12972" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12973" max="13219" width="9.140625" style="2"/>
+    <col min="13220" max="13220" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13221" max="13221" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13222" max="13222" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13223" max="13223" width="50.7109375" style="2" customWidth="1"/>
     <col min="13224" max="13224" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13225" max="13225" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13226" max="13226" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13227" max="13227" width="11.44140625" style="2" customWidth="1"/>
-    <col min="13228" max="13228" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13229" max="13475" width="9.109375" style="2"/>
-    <col min="13476" max="13476" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13477" max="13477" width="8.33203125" style="2" customWidth="1"/>
-    <col min="13478" max="13478" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13479" max="13479" width="50.6640625" style="2" customWidth="1"/>
+    <col min="13225" max="13225" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13226" max="13226" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13227" max="13227" width="11.42578125" style="2" customWidth="1"/>
+    <col min="13228" max="13228" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13229" max="13475" width="9.140625" style="2"/>
+    <col min="13476" max="13476" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13477" max="13477" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13478" max="13478" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13479" max="13479" width="50.7109375" style="2" customWidth="1"/>
     <col min="13480" max="13480" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13481" max="13481" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13482" max="13482" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13483" max="13483" width="11.44140625" style="2" customWidth="1"/>
-    <col min="13484" max="13484" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13485" max="13731" width="9.109375" style="2"/>
-    <col min="13732" max="13732" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13733" max="13733" width="8.33203125" style="2" customWidth="1"/>
-    <col min="13734" max="13734" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13735" max="13735" width="50.6640625" style="2" customWidth="1"/>
+    <col min="13481" max="13481" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13482" max="13482" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13483" max="13483" width="11.42578125" style="2" customWidth="1"/>
+    <col min="13484" max="13484" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13485" max="13731" width="9.140625" style="2"/>
+    <col min="13732" max="13732" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13733" max="13733" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13734" max="13734" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13735" max="13735" width="50.7109375" style="2" customWidth="1"/>
     <col min="13736" max="13736" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13737" max="13737" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13738" max="13738" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13739" max="13739" width="11.44140625" style="2" customWidth="1"/>
-    <col min="13740" max="13740" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13741" max="13987" width="9.109375" style="2"/>
-    <col min="13988" max="13988" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13989" max="13989" width="8.33203125" style="2" customWidth="1"/>
-    <col min="13990" max="13990" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13991" max="13991" width="50.6640625" style="2" customWidth="1"/>
+    <col min="13737" max="13737" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13738" max="13738" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13739" max="13739" width="11.42578125" style="2" customWidth="1"/>
+    <col min="13740" max="13740" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13741" max="13987" width="9.140625" style="2"/>
+    <col min="13988" max="13988" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13989" max="13989" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13990" max="13990" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13991" max="13991" width="50.7109375" style="2" customWidth="1"/>
     <col min="13992" max="13992" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13993" max="13993" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13994" max="13994" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13995" max="13995" width="11.44140625" style="2" customWidth="1"/>
-    <col min="13996" max="13996" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13997" max="14243" width="9.109375" style="2"/>
-    <col min="14244" max="14244" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14245" max="14245" width="8.33203125" style="2" customWidth="1"/>
-    <col min="14246" max="14246" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14247" max="14247" width="50.6640625" style="2" customWidth="1"/>
+    <col min="13993" max="13993" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13994" max="13994" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13995" max="13995" width="11.42578125" style="2" customWidth="1"/>
+    <col min="13996" max="13996" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13997" max="14243" width="9.140625" style="2"/>
+    <col min="14244" max="14244" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14245" max="14245" width="8.28515625" style="2" customWidth="1"/>
+    <col min="14246" max="14246" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14247" max="14247" width="50.7109375" style="2" customWidth="1"/>
     <col min="14248" max="14248" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="14249" max="14249" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14250" max="14250" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14251" max="14251" width="11.44140625" style="2" customWidth="1"/>
-    <col min="14252" max="14252" width="12.6640625" style="2" customWidth="1"/>
-    <col min="14253" max="14499" width="9.109375" style="2"/>
-    <col min="14500" max="14500" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14501" max="14501" width="8.33203125" style="2" customWidth="1"/>
-    <col min="14502" max="14502" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14503" max="14503" width="50.6640625" style="2" customWidth="1"/>
+    <col min="14249" max="14249" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14250" max="14250" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14251" max="14251" width="11.42578125" style="2" customWidth="1"/>
+    <col min="14252" max="14252" width="12.7109375" style="2" customWidth="1"/>
+    <col min="14253" max="14499" width="9.140625" style="2"/>
+    <col min="14500" max="14500" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14501" max="14501" width="8.28515625" style="2" customWidth="1"/>
+    <col min="14502" max="14502" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14503" max="14503" width="50.7109375" style="2" customWidth="1"/>
     <col min="14504" max="14504" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="14505" max="14505" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14506" max="14506" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14507" max="14507" width="11.44140625" style="2" customWidth="1"/>
-    <col min="14508" max="14508" width="12.6640625" style="2" customWidth="1"/>
-    <col min="14509" max="14755" width="9.109375" style="2"/>
-    <col min="14756" max="14756" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14757" max="14757" width="8.33203125" style="2" customWidth="1"/>
-    <col min="14758" max="14758" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14759" max="14759" width="50.6640625" style="2" customWidth="1"/>
+    <col min="14505" max="14505" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14506" max="14506" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14507" max="14507" width="11.42578125" style="2" customWidth="1"/>
+    <col min="14508" max="14508" width="12.7109375" style="2" customWidth="1"/>
+    <col min="14509" max="14755" width="9.140625" style="2"/>
+    <col min="14756" max="14756" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14757" max="14757" width="8.28515625" style="2" customWidth="1"/>
+    <col min="14758" max="14758" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14759" max="14759" width="50.7109375" style="2" customWidth="1"/>
     <col min="14760" max="14760" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="14761" max="14761" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14762" max="14762" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14763" max="14763" width="11.44140625" style="2" customWidth="1"/>
-    <col min="14764" max="14764" width="12.6640625" style="2" customWidth="1"/>
-    <col min="14765" max="15011" width="9.109375" style="2"/>
-    <col min="15012" max="15012" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15013" max="15013" width="8.33203125" style="2" customWidth="1"/>
-    <col min="15014" max="15014" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15015" max="15015" width="50.6640625" style="2" customWidth="1"/>
+    <col min="14761" max="14761" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14762" max="14762" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14763" max="14763" width="11.42578125" style="2" customWidth="1"/>
+    <col min="14764" max="14764" width="12.7109375" style="2" customWidth="1"/>
+    <col min="14765" max="15011" width="9.140625" style="2"/>
+    <col min="15012" max="15012" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15013" max="15013" width="8.28515625" style="2" customWidth="1"/>
+    <col min="15014" max="15014" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15015" max="15015" width="50.7109375" style="2" customWidth="1"/>
     <col min="15016" max="15016" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15017" max="15017" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15018" max="15018" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15019" max="15019" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15020" max="15020" width="12.6640625" style="2" customWidth="1"/>
-    <col min="15021" max="15267" width="9.109375" style="2"/>
-    <col min="15268" max="15268" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15269" max="15269" width="8.33203125" style="2" customWidth="1"/>
-    <col min="15270" max="15270" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15271" max="15271" width="50.6640625" style="2" customWidth="1"/>
+    <col min="15017" max="15017" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15018" max="15018" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15019" max="15019" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15020" max="15020" width="12.7109375" style="2" customWidth="1"/>
+    <col min="15021" max="15267" width="9.140625" style="2"/>
+    <col min="15268" max="15268" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15269" max="15269" width="8.28515625" style="2" customWidth="1"/>
+    <col min="15270" max="15270" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15271" max="15271" width="50.7109375" style="2" customWidth="1"/>
     <col min="15272" max="15272" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15273" max="15273" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15274" max="15274" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15275" max="15275" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15276" max="15276" width="12.6640625" style="2" customWidth="1"/>
-    <col min="15277" max="15523" width="9.109375" style="2"/>
-    <col min="15524" max="15524" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15525" max="15525" width="8.33203125" style="2" customWidth="1"/>
-    <col min="15526" max="15526" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15527" max="15527" width="50.6640625" style="2" customWidth="1"/>
+    <col min="15273" max="15273" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15274" max="15274" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15275" max="15275" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15276" max="15276" width="12.7109375" style="2" customWidth="1"/>
+    <col min="15277" max="15523" width="9.140625" style="2"/>
+    <col min="15524" max="15524" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15525" max="15525" width="8.28515625" style="2" customWidth="1"/>
+    <col min="15526" max="15526" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15527" max="15527" width="50.7109375" style="2" customWidth="1"/>
     <col min="15528" max="15528" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15529" max="15529" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15530" max="15530" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15531" max="15531" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15532" max="15532" width="12.6640625" style="2" customWidth="1"/>
-    <col min="15533" max="15779" width="9.109375" style="2"/>
-    <col min="15780" max="15780" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15781" max="15781" width="8.33203125" style="2" customWidth="1"/>
-    <col min="15782" max="15782" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15783" max="15783" width="50.6640625" style="2" customWidth="1"/>
+    <col min="15529" max="15529" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15530" max="15530" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15531" max="15531" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15532" max="15532" width="12.7109375" style="2" customWidth="1"/>
+    <col min="15533" max="15779" width="9.140625" style="2"/>
+    <col min="15780" max="15780" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15781" max="15781" width="8.28515625" style="2" customWidth="1"/>
+    <col min="15782" max="15782" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15783" max="15783" width="50.7109375" style="2" customWidth="1"/>
     <col min="15784" max="15784" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15785" max="15785" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15786" max="15786" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15787" max="15787" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15788" max="15788" width="12.6640625" style="2" customWidth="1"/>
-    <col min="15789" max="16035" width="9.109375" style="2"/>
-    <col min="16036" max="16036" width="5.6640625" style="2" customWidth="1"/>
-    <col min="16037" max="16037" width="8.33203125" style="2" customWidth="1"/>
-    <col min="16038" max="16038" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16039" max="16039" width="50.6640625" style="2" customWidth="1"/>
+    <col min="15785" max="15785" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15786" max="15786" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15787" max="15787" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15788" max="15788" width="12.7109375" style="2" customWidth="1"/>
+    <col min="15789" max="16035" width="9.140625" style="2"/>
+    <col min="16036" max="16036" width="5.7109375" style="2" customWidth="1"/>
+    <col min="16037" max="16037" width="8.28515625" style="2" customWidth="1"/>
+    <col min="16038" max="16038" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16039" max="16039" width="50.7109375" style="2" customWidth="1"/>
     <col min="16040" max="16040" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="16041" max="16041" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16042" max="16042" width="5.6640625" style="2" customWidth="1"/>
-    <col min="16043" max="16043" width="11.44140625" style="2" customWidth="1"/>
-    <col min="16044" max="16044" width="12.6640625" style="2" customWidth="1"/>
-    <col min="16045" max="16363" width="9.109375" style="2"/>
-    <col min="16364" max="16382" width="9.109375" style="2" customWidth="1"/>
-    <col min="16383" max="16384" width="9.109375" style="2"/>
+    <col min="16041" max="16041" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16042" max="16042" width="5.7109375" style="2" customWidth="1"/>
+    <col min="16043" max="16043" width="11.42578125" style="2" customWidth="1"/>
+    <col min="16044" max="16044" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16045" max="16363" width="9.140625" style="2"/>
+    <col min="16364" max="16382" width="9.140625" style="2" customWidth="1"/>
+    <col min="16383" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
@@ -2132,7 +2142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -2194,7 +2204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -2225,7 +2235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -2287,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2318,7 +2328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2349,7 +2359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
@@ -2566,7 +2576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -2597,7 +2607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>55</v>
       </c>
@@ -2814,7 +2824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
@@ -2845,7 +2855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -2938,7 +2948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -2969,7 +2979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
@@ -3000,7 +3010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>62</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>64</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>66</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>68</v>
       </c>
@@ -3248,7 +3258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>69</v>
       </c>
@@ -3279,7 +3289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>70</v>
       </c>
@@ -3310,7 +3320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
@@ -3341,7 +3351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>72</v>
       </c>
@@ -3372,7 +3382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>73</v>
       </c>
@@ -3403,7 +3413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>74</v>
       </c>
@@ -3434,7 +3444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>75</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>76</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>77</v>
       </c>
@@ -3527,7 +3537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>78</v>
       </c>
@@ -3558,7 +3568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>79</v>
       </c>
@@ -3589,7 +3599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>80</v>
       </c>
@@ -3620,12 +3630,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>4</v>
@@ -3638,7 +3648,7 @@
       </c>
       <c r="F55" s="16">
         <f t="shared" ref="F55:F59" si="4">E55*D55*B55</f>
-        <v>24150</v>
+        <v>48300</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>21</v>
@@ -3653,7 +3663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>82</v>
       </c>
@@ -3686,12 +3696,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>4</v>
@@ -3704,7 +3714,7 @@
       </c>
       <c r="F57" s="16">
         <f t="shared" si="4"/>
-        <v>32200</v>
+        <v>64400</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>21</v>
@@ -3719,12 +3729,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>4</v>
@@ -3737,7 +3747,7 @@
       </c>
       <c r="F58" s="16">
         <f t="shared" si="4"/>
-        <v>61180</v>
+        <v>122360</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>21</v>
@@ -3752,12 +3762,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>4</v>
@@ -3770,7 +3780,7 @@
       </c>
       <c r="F59" s="16">
         <f t="shared" si="4"/>
-        <v>54740</v>
+        <v>109480</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>21</v>
@@ -3785,9 +3795,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B60" s="10">
         <v>1</v>
@@ -3799,11 +3809,11 @@
         <v>14</v>
       </c>
       <c r="E60" s="16">
-        <v>1725</v>
+        <v>1380</v>
       </c>
       <c r="F60" s="16">
-        <f>E60*D60*B60</f>
-        <v>24150</v>
+        <f t="shared" ref="F60:F61" si="5">E60*D60*B60</f>
+        <v>19320</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
@@ -3818,9 +3828,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="10">
         <v>1</v>
@@ -3832,11 +3842,11 @@
         <v>14</v>
       </c>
       <c r="E61" s="16">
-        <v>1380</v>
+        <v>1150</v>
       </c>
       <c r="F61" s="16">
-        <f t="shared" ref="F61:F62" si="5">E61*D61*B61</f>
-        <v>19320</v>
+        <f t="shared" si="5"/>
+        <v>16100</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
@@ -3851,9 +3861,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="10">
         <v>1</v>
@@ -3865,11 +3875,11 @@
         <v>14</v>
       </c>
       <c r="E62" s="16">
-        <v>1150</v>
+        <v>1035</v>
       </c>
       <c r="F62" s="16">
-        <f t="shared" si="5"/>
-        <v>16100</v>
+        <f>E62*D62*B62</f>
+        <v>14490</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>21</v>
@@ -3884,12 +3894,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B63" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>4</v>
@@ -3898,11 +3908,11 @@
         <v>14</v>
       </c>
       <c r="E63" s="16">
-        <v>1150</v>
+        <v>920</v>
       </c>
       <c r="F63" s="16">
-        <f>E63*D63*B63</f>
-        <v>32200</v>
+        <f t="shared" ref="F63:F65" si="6">E63*D63*B63</f>
+        <v>12880</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>21</v>
@@ -3917,12 +3927,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B64" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>4</v>
@@ -3931,11 +3941,11 @@
         <v>14</v>
       </c>
       <c r="E64" s="16">
-        <v>1092.5</v>
+        <v>1035</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" ref="F64" si="6">E64*D64*B64</f>
-        <v>61180</v>
+        <f t="shared" si="6"/>
+        <v>14490</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
@@ -3950,12 +3960,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>4</v>
@@ -3964,11 +3974,11 @@
         <v>14</v>
       </c>
       <c r="E65" s="16">
-        <v>1035</v>
+        <v>920</v>
       </c>
       <c r="F65" s="16">
-        <f>E65*D65*B65</f>
-        <v>14490</v>
+        <f t="shared" si="6"/>
+        <v>25760</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>21</v>
@@ -3983,147 +3993,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="10">
-        <v>4</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="19">
-        <v>14</v>
-      </c>
-      <c r="E66" s="16">
-        <v>977.5</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" ref="F66:F69" si="7">E66*D66*B66</f>
-        <v>54740</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="4">
-        <v>45306</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="10">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="19">
-        <v>14</v>
-      </c>
-      <c r="E67" s="16">
-        <v>920</v>
-      </c>
-      <c r="F67" s="16">
-        <f t="shared" si="7"/>
-        <v>12880</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="4">
-        <v>45306</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" s="10">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="19">
-        <v>14</v>
-      </c>
-      <c r="E68" s="16">
-        <v>1035</v>
-      </c>
-      <c r="F68" s="16">
-        <f t="shared" si="7"/>
-        <v>14490</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="4">
-        <v>45306</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="10">
-        <v>2</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="19">
-        <v>14</v>
-      </c>
-      <c r="E69" s="16">
-        <v>920</v>
-      </c>
-      <c r="F69" s="16">
-        <f t="shared" si="7"/>
-        <v>25760</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="4">
-        <v>45306</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="11"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J65"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
